--- a/DMP_Hydrology/Files/Planilha_Input_PLASH.xlsx
+++ b/DMP_Hydrology/Files/Planilha_Input_PLASH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudio_Mestrado\DMP_Hydrology\DMP_Hydrology\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71FDD03-82F7-4402-AED2-853AD259FA4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D21656E-8109-43D1-8CAE-19630C720A22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FD8CD17B-5001-41C4-A9F9-E9FF7522A49F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{FD8CD17B-5001-41C4-A9F9-E9FF7522A49F}"/>
   </bookViews>
   <sheets>
     <sheet name="Bacias" sheetId="1" r:id="rId1"/>
@@ -435,7 +435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DD274A-8740-4110-B240-73C0259DDD0F}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -39146,8 +39146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3604026B-6FBC-49D6-97E7-166E41B829E1}">
   <dimension ref="A1:C581"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
